--- a/J48Consolidated results.xlsx
+++ b/J48Consolidated results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="orig, cross-validate" sheetId="1" r:id="rId1"/>
@@ -14857,7 +14857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -19410,7 +19410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:V22"/>
     </sheetView>
   </sheetViews>
